--- a/biology/Zoologie/Cirrina/Cirrina.xlsx
+++ b/biology/Zoologie/Cirrina/Cirrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cirrates, Cirrina ou Cirrata, constituent un sous-ordre d'animaux de l'ordre des octopodes. Ils ont deux nageoires latérales et une paire de cils à chaque ventouses. Ce sont des octopodes pélagiques vivant dans les abysses, entre 2 000 et 4 000 m de profondeur. Ils sont abusivement appelés pieuvres, alors qu'ils n'ont que peu de points communs avec les octopodes benthiques. Le terme « cirrate » vient du synonyme « Cirrata » créé par Georg von Grimpe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement les deux groupes d'octopodes, celui-ci et les Incirrina, ont été créés en tenant compte des sortes de cils (cirres) disposés à côté des ventouses sous les bras. Le nom des sous-ordres en témoigne, les cirrates disposent d'une paire de cils à chaque ventouses, cirri en latin, tandis que les Incirrina n'en ont pas.
 À la différence des autres octopodes, les bras des cirrates sont liés par une ombrelle et elles n'ont pas de bras copulateur (hectocotyle). Leur radula, leur poche d'encre et leurs glandes salivaires postérieures ont régressé.
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent de petits crustacés planctoniques et autres animalcules, ce qui explique la perte de leur radula et le développement d'une ombrelle et de cirres pour capturer ces minuscules proies.
 </t>
@@ -575,15 +591,17 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (23 avril 2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (23 avril 2024) :
 famille Cirroctopodidae  M. A. Collins &amp; Villenueva, 2006
 famille Cirroteuthidae W. Keferstein, 1866
 famille Grimpoteuthidae  O'Shea, 1999
 famille Opisthoteuthidae  A. E. Verrill, 1896
 famille Stauroteuthidae Grimpe, 1916
-BioLib                    (23 janvier 2022)[2] y ajoute :
+BioLib                    (23 janvier 2022) y ajoute :
 famille Grimpoteuthididae O'Shea, 1999 (Opisthoteuthidae pour WoRMS)
 famille Luteuthididae O'Shea, 1999 (Opisthoteuthidae pour WoRMS)
 			Cirroctopus sp. (Cirroctopodidae)
